--- a/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,85</t>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 8,78</t>
+          <t>-9,12; 16,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -3,36</t>
+          <t>-13,22; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -0,91</t>
+          <t>-9,23; 7,66</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>-9,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>-2,22%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 15,55</t>
+          <t>-20,7; 51,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -5,53</t>
+          <t>-25,89; 12,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,94; -1,54</t>
+          <t>-20,09; 19,94</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,83</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>-5,46</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 0,15</t>
+          <t>-20,07; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 5,12</t>
+          <t>-15,76; 6,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -0,55</t>
+          <t>-13,78; 3,27</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,56%</t>
+          <t>-18,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-8,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-12,48%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 2,44</t>
+          <t>-45,43; 11,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 8,61</t>
+          <t>-29,14; 15,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -0,91</t>
+          <t>-28,64; 8,18</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>21,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,93</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>11,23</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 42,3</t>
+          <t>-7,88; 61,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 6,63</t>
+          <t>-22,17; 24,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 21,23</t>
+          <t>-9,43; 33,57</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-18,81%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>31,43%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 155,39</t>
+          <t>-26,52; 709,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 9,64</t>
+          <t>-38,42; 69,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 47,16</t>
+          <t>-22,32; 130,81</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 3,74</t>
+          <t>-7,72; 11,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -3,29</t>
+          <t>-10,49; 3,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -2,47</t>
+          <t>-6,83; 4,37</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>-3,6%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 6,68</t>
+          <t>-19,34; 33,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -5,32</t>
+          <t>-20,38; 8,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -4,08</t>
+          <t>-15,2; 10,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.953898563038214</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.623790950795495</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.421669476269906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,12; 16,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 5,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; 7,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.57282691777695</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.40521992746688</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.02007836425579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,42%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.17999655119347</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.201169396149754</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.69831169679545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-20,7; 51,99</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-25,89; 12,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,09; 19,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.03490830320561063</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1127991703439778</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.05478439345754507</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1850316124590669</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2732727016535846</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1881557791781688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,07; 3,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 6,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,78; 3,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.3517108976550973</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.04919598128730427</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.09365864231358052</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-18,82%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-8,39%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-12,48%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-13.33763259111177</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.736969501359724</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.083714228591887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-45,43; 11,69</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-29,14; 15,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-28,64; 8,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-28.60719910202651</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.43294026469372</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.12422816658325</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>21,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.9677387372714381</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.344853362339286</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.789563699971403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 61,97</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-22,17; 24,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,43; 33,57</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.2188579919303097</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.08852518458229078</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.14383389948748</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>85,79%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>31,43%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4190558314667904</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2570658078940101</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2664165931148759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-26,52; 709,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-38,42; 69,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,32; 130,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.01594260588605971</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.121493034833031</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01341593318866749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>24.00732199071503</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.669722581709388</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>13.23736444653177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 11,14</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,49; 3,55</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 4,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.71413778691201</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.21526465811969</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.668010788450379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-7,91%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-3,6%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>66.18901223296629</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>26.80070384998711</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>40.90848951817546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 33,79</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 8,2</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-15,2; 10,7</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.6673633179564938</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.04036285034178573</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.2590003483829143</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2283407667613163</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2982142543346152</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1452264020169548</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>5.534721434992112</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5020314463891815</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.203282158795763</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.352792188995955</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.863130227508706</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.939932464459961</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-11.7964705944776</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.18091153692255</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.77116397145148</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.3268465069641</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.626578074439322</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.482671029593293</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02434727290954121</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.08843002139288622</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.06400480351647703</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1932372369577435</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1933387441948067</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1689577794321923</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2180511753696753</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.03485966978895506</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.04182631874181621</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
